--- a/tests/clean.data/Claire/master.guide.xlsx
+++ b/tests/clean.data/Claire/master.guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="377">
   <si>
     <t>Thermal</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>m16.quest</t>
   </si>
   <si>
-    <t>Taken from FS weather station; Calculated from last thermal image to 12 hours before</t>
-  </si>
-  <si>
     <t>First four taken from http://climate.weather.gc.ca/climate_data/daily_data_e.html?StationID=336 which provides estimates for each day</t>
   </si>
   <si>
@@ -1150,6 +1147,15 @@
   </si>
   <si>
     <t>cheekeye river</t>
+  </si>
+  <si>
+    <t>m13.weath.csv has hour by hour</t>
+  </si>
+  <si>
+    <t>m16.weath.csv has hour by hour</t>
+  </si>
+  <si>
+    <t>Taken from FS weather station; Calculated from the last thermal image taken to 12 hours before</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1253,8 +1259,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1320,8 +1335,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1379,8 +1402,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1413,6 +1442,10 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1445,6 +1478,10 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1774,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1793,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1808,7 +1845,7 @@
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>324</v>
@@ -1868,7 +1905,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1883,10 +1920,10 @@
         <v>351</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>349</v>
@@ -1895,52 +1932,41 @@
         <v>350</v>
       </c>
       <c r="F8" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>362</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>363</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="34">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="34">
-        <v>5</v>
-      </c>
-      <c r="E9" s="34">
-        <v>3.4</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29" t="s">
-        <v>354</v>
-      </c>
+      <c r="A9" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="29">
-        <v>8.9</v>
-      </c>
-      <c r="C10" s="29">
-        <v>-5</v>
-      </c>
-      <c r="D10" s="29">
-        <v>2</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="B10" s="34">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>5</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3.4</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -1948,13 +1974,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="33" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B11" s="29">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="C11" s="29">
-        <v>-5.0999999999999996</v>
+        <v>-5</v>
       </c>
       <c r="D11" s="29">
         <v>2</v>
@@ -1968,19 +1994,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="29">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="C12" s="29">
-        <v>-1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D12" s="29">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="E12" s="29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -1988,391 +2014,429 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="29">
+        <v>9.9</v>
+      </c>
+      <c r="C13" s="29">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B15" s="29">
         <v>3.22</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C15" s="29">
         <v>-1.35</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D15" s="29">
         <v>0.622</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E15" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F15" s="29">
         <v>95.85</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G15" s="29">
         <v>401.9</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="33" t="s">
+      <c r="H15" s="29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B16" s="29">
         <v>15.87</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C16" s="29">
         <v>0.438</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D16" s="29">
         <v>7.33</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E16" s="30">
         <v>0</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F16" s="29">
         <v>75.430000000000007</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G16" s="29">
         <v>648.1</v>
       </c>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="H16" s="29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1">
-      <c r="A17" s="13" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1">
+      <c r="A19" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="8" t="s">
+    <row r="20" spans="1:7" ht="45">
+      <c r="A20" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D20" s="9">
         <v>0.67027777777777775</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.45847222222222223</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.56511574074074067</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" s="10">
-        <v>0.35928240740740741</v>
+        <v>0.45847222222222223</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30">
       <c r="A22" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D22" s="9">
-        <v>0.31997685185185182</v>
+        <v>0.56511574074074067</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.35928240740740741</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.31997685185185182</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D25" s="10">
         <v>0.65143518518518517</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" ht="16" thickBot="1">
-      <c r="A25" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>330</v>
-      </c>
+      <c r="E25" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+    <row r="27" spans="1:7" ht="16" thickBot="1">
+      <c r="A27" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B31" s="8"/>
+        <v>335</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="16" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3" ht="16" thickBot="1">
-      <c r="A34" s="19" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1">
+      <c r="A36" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B36" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="17" t="s">
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B37" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="17" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="B38" s="17" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="17" t="s">
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="17" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C40" s="18" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="17" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="17" t="s">
+      <c r="B43" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-    </row>
-    <row r="45" spans="1:3" ht="45">
-      <c r="A45" s="26" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" ht="45">
+      <c r="A47" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B47" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="26" t="s">
+      <c r="C47" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B48" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C46" s="26"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="26" t="s">
+      <c r="C48" s="26"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B49" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C47" s="26"/>
+      <c r="C49" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2387,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -2412,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2438,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F2" s="5">
         <v>0.67027777777777775</v>
@@ -2461,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F3" s="5">
         <v>0.67087962962962966</v>
@@ -2481,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F4" s="5">
         <v>0.67101851851851846</v>
@@ -2501,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F5" s="5">
         <v>0.67168981481481482</v>
@@ -2521,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="5">
         <v>0.67219907407407409</v>
@@ -2541,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F7" s="5">
         <v>0.67340277777777768</v>
@@ -2561,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" s="5">
         <v>0.67391203703703706</v>
@@ -2581,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F9" s="5">
         <v>0.67407407407407405</v>
@@ -2601,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F10" s="5">
         <v>0.67425925925925922</v>
@@ -2621,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" s="5">
         <v>0.67476851851851849</v>
@@ -2641,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F12" s="5">
         <v>0.67564814814814822</v>
@@ -2664,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F13" s="5">
         <v>0.67574074074074064</v>
@@ -2678,13 +2742,13 @@
         <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F14" s="5">
         <v>0.67620370370370375</v>
@@ -2704,13 +2768,13 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F15" s="5">
         <v>0.67696759259259265</v>
       </c>
       <c r="G15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2727,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F16" s="5">
         <v>0.69942129629629635</v>
@@ -2744,13 +2808,13 @@
         <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" s="5">
         <v>0.69986111111111116</v>
@@ -2770,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F18" s="5">
         <v>0.70120370370370377</v>
@@ -2793,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" s="5">
         <v>0.70178240740740738</v>
@@ -2816,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F20" s="5">
         <v>0.7025231481481482</v>
@@ -2839,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F21" s="5">
         <v>0.70465277777777768</v>
@@ -2859,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" s="5">
         <v>0.70622685185185186</v>
@@ -2879,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F23" s="5">
         <v>0.70664351851851848</v>
@@ -2899,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F24" s="5">
         <v>0.70678240740740739</v>
@@ -2919,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F25" s="5">
         <v>0.70706018518518521</v>
@@ -2939,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26" s="5">
         <v>0.71597222222222223</v>
@@ -2959,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="5">
         <v>0.72340277777777784</v>
@@ -2982,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F28" s="5">
         <v>0.72361111111111109</v>
@@ -3002,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F29" s="5">
         <v>0.72402777777777771</v>
@@ -3022,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F30" s="5">
         <v>0.724675925925926</v>
@@ -3045,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="5">
         <v>0.72502314814814817</v>
@@ -3065,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F32" s="5">
         <v>0.72513888888888889</v>
@@ -3082,13 +3146,13 @@
         <v>238</v>
       </c>
       <c r="C33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F33" s="5">
         <v>0.73115740740740742</v>
@@ -3111,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F34" s="5">
         <v>0.7319444444444444</v>
@@ -3134,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F35" s="5">
         <v>0.73219907407407403</v>
@@ -3255,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3384,7 +3448,7 @@
         <v>212</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3430,7 +3494,7 @@
         <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3533,7 +3597,7 @@
         <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3579,7 +3643,7 @@
         <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -3722,7 +3786,7 @@
         <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -3834,7 +3898,7 @@
         <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -3871,7 +3935,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="C30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -3902,7 +3966,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="C32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -3982,7 +4046,7 @@
         <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E36" t="s">
         <v>308</v>
@@ -4299,7 +4363,7 @@
         <v>251</v>
       </c>
       <c r="C52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
@@ -4333,7 +4397,7 @@
         <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4753,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4985,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -5242,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -5941,7 +6005,7 @@
         <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -5984,7 +6048,7 @@
         <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -6004,7 +6068,7 @@
         <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -6044,7 +6108,7 @@
         <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -6067,7 +6131,7 @@
         <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -6516,7 +6580,7 @@
         <v>268</v>
       </c>
       <c r="C62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -6536,7 +6600,7 @@
         <v>269</v>
       </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -7348,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
